--- a/2016년 재료비 6월/논술1 교재비.xlsx
+++ b/2016년 재료비 6월/논술1 교재비.xlsx
@@ -589,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/2016년 재료비 6월/논술1 교재비.xlsx
+++ b/2016년 재료비 6월/논술1 교재비.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -276,9 +276,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -589,40 +586,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8" style="7" customWidth="1"/>
-    <col min="4" max="4" width="7" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -630,10 +627,10 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="1">
@@ -642,7 +639,7 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>17000</v>
       </c>
       <c r="G2" s="1"/>
@@ -651,10 +648,10 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="1">
@@ -663,7 +660,7 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>17000</v>
       </c>
       <c r="G3" s="1"/>
@@ -672,10 +669,10 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
         <v>2</v>
       </c>
       <c r="D4" s="1">
@@ -684,7 +681,7 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>17000</v>
       </c>
       <c r="G4" s="1"/>
@@ -693,10 +690,10 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="1">
@@ -705,7 +702,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>17000</v>
       </c>
       <c r="G5" s="1"/>
@@ -714,10 +711,10 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
         <v>2</v>
       </c>
       <c r="D6" s="1">
@@ -726,7 +723,7 @@
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>17000</v>
       </c>
       <c r="G6" s="1"/>
@@ -735,10 +732,10 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
         <v>3</v>
       </c>
       <c r="D7" s="1">
@@ -747,7 +744,7 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>17000</v>
       </c>
       <c r="G7" s="1"/>
@@ -756,10 +753,10 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
         <v>3</v>
       </c>
       <c r="D8" s="1">
@@ -768,7 +765,7 @@
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>17000</v>
       </c>
       <c r="G8" s="1"/>
@@ -777,10 +774,10 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
         <v>5</v>
       </c>
       <c r="D9" s="1">
@@ -789,7 +786,7 @@
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>17000</v>
       </c>
       <c r="G9" s="1"/>
@@ -798,10 +795,10 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="1">
@@ -810,7 +807,7 @@
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>17000</v>
       </c>
       <c r="G10" s="1"/>
@@ -819,10 +816,10 @@
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="1">
@@ -831,7 +828,7 @@
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>17000</v>
       </c>
       <c r="G11" s="1"/>
@@ -840,10 +837,10 @@
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="1">
@@ -852,7 +849,7 @@
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>17000</v>
       </c>
       <c r="G12" s="1"/>
@@ -861,10 +858,10 @@
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="1">
@@ -873,7 +870,7 @@
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>8500</v>
       </c>
       <c r="G13" s="1"/>
@@ -882,10 +879,10 @@
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
         <v>2</v>
       </c>
       <c r="D14" s="1">
@@ -894,7 +891,7 @@
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>17000</v>
       </c>
       <c r="G14" s="1"/>
@@ -903,10 +900,10 @@
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
         <v>2</v>
       </c>
       <c r="D15" s="1">
@@ -915,7 +912,7 @@
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>17000</v>
       </c>
       <c r="G15" s="1"/>
@@ -924,10 +921,10 @@
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
         <v>3</v>
       </c>
       <c r="D16" s="1">
@@ -936,7 +933,7 @@
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>17000</v>
       </c>
       <c r="G16" s="1"/>
@@ -945,10 +942,10 @@
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5">
         <v>4</v>
       </c>
       <c r="D17" s="1">
@@ -957,7 +954,7 @@
       <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>17000</v>
       </c>
       <c r="G17" s="1"/>
@@ -966,10 +963,10 @@
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="5">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
         <v>5</v>
       </c>
       <c r="D18" s="1">
@@ -978,7 +975,7 @@
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>17000</v>
       </c>
       <c r="G18" s="1"/>
@@ -987,10 +984,10 @@
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
         <v>5</v>
       </c>
       <c r="D19" s="1">
@@ -999,7 +996,7 @@
       <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>17000</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1010,10 +1007,10 @@
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="5">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
         <v>5</v>
       </c>
       <c r="D20" s="1">
@@ -1022,7 +1019,7 @@
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>17000</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1033,10 +1030,10 @@
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
         <v>5</v>
       </c>
       <c r="D21" s="1">
@@ -1045,7 +1042,7 @@
       <c r="E21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>17000</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1056,10 +1053,10 @@
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="1">
@@ -1068,7 +1065,7 @@
       <c r="E22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>18800</v>
       </c>
       <c r="G22" s="1"/>
@@ -1077,10 +1074,10 @@
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>3</v>
       </c>
       <c r="D23" s="1">
@@ -1089,7 +1086,7 @@
       <c r="E23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>18800</v>
       </c>
       <c r="G23" s="1"/>
@@ -1098,10 +1095,10 @@
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>3</v>
       </c>
       <c r="D24" s="1">
@@ -1110,7 +1107,7 @@
       <c r="E24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>18800</v>
       </c>
       <c r="G24" s="1"/>
@@ -1119,10 +1116,10 @@
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>3</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>5</v>
       </c>
       <c r="D25" s="1">
@@ -1131,7 +1128,7 @@
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>18800</v>
       </c>
       <c r="G25" s="1"/>
@@ -1140,10 +1137,10 @@
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>3</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>5</v>
       </c>
       <c r="D26" s="1">
@@ -1152,7 +1149,7 @@
       <c r="E26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>18800</v>
       </c>
       <c r="G26" s="1"/>
@@ -1161,10 +1158,10 @@
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>4</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>1</v>
       </c>
       <c r="D27" s="1">
@@ -1173,7 +1170,7 @@
       <c r="E27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>18800</v>
       </c>
       <c r="G27" s="1"/>
@@ -1182,10 +1179,10 @@
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>4</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>4</v>
       </c>
       <c r="D28" s="1">
@@ -1194,7 +1191,7 @@
       <c r="E28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>18800</v>
       </c>
       <c r="G28" s="1"/>
@@ -1203,10 +1200,10 @@
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>4</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>4</v>
       </c>
       <c r="D29" s="1">
@@ -1215,7 +1212,7 @@
       <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>18800</v>
       </c>
       <c r="G29" s="1"/>
@@ -1224,10 +1221,10 @@
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>4</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>5</v>
       </c>
       <c r="D30" s="1">
@@ -1236,7 +1233,7 @@
       <c r="E30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>18800</v>
       </c>
       <c r="G30" s="1"/>
@@ -1245,10 +1242,10 @@
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>4</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>5</v>
       </c>
       <c r="D31" s="1">
@@ -1257,7 +1254,7 @@
       <c r="E31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="1">
         <v>10000</v>
       </c>
       <c r="G31" s="1"/>
@@ -1266,10 +1263,10 @@
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>4</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>6</v>
       </c>
       <c r="D32" s="1">
@@ -1278,7 +1275,7 @@
       <c r="E32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="1">
         <v>10000</v>
       </c>
       <c r="G32" s="1"/>
@@ -1287,10 +1284,10 @@
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="5">
-        <v>5</v>
-      </c>
-      <c r="C33" s="6">
+      <c r="B33" s="4">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5">
         <v>1</v>
       </c>
       <c r="D33" s="1">
@@ -1299,7 +1296,7 @@
       <c r="E33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>18800</v>
       </c>
       <c r="G33" s="1"/>
@@ -1308,10 +1305,10 @@
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="5">
-        <v>5</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5">
         <v>1</v>
       </c>
       <c r="D34" s="1">
@@ -1320,7 +1317,7 @@
       <c r="E34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>18800</v>
       </c>
       <c r="G34" s="1"/>
@@ -1329,10 +1326,10 @@
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="5">
-        <v>5</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
         <v>2</v>
       </c>
       <c r="D35" s="1">
@@ -1341,7 +1338,7 @@
       <c r="E35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="1">
         <v>18800</v>
       </c>
       <c r="G35" s="1"/>
@@ -1350,10 +1347,10 @@
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="5">
-        <v>5</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B36" s="4">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5">
         <v>2</v>
       </c>
       <c r="D36" s="1">
@@ -1362,7 +1359,7 @@
       <c r="E36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="1">
         <v>18800</v>
       </c>
       <c r="G36" s="1"/>
@@ -1371,10 +1368,10 @@
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="5">
-        <v>5</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="B37" s="4">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5">
         <v>4</v>
       </c>
       <c r="D37" s="1">
@@ -1383,7 +1380,7 @@
       <c r="E37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="1">
         <v>18800</v>
       </c>
       <c r="G37" s="1"/>
@@ -1392,10 +1389,10 @@
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="5">
-        <v>5</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="B38" s="4">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5">
         <v>6</v>
       </c>
       <c r="D38" s="1">
@@ -1404,7 +1401,7 @@
       <c r="E38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="1">
         <v>10000</v>
       </c>
       <c r="G38" s="1"/>
@@ -1413,10 +1410,10 @@
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="5">
-        <v>5</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="B39" s="4">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5">
         <v>6</v>
       </c>
       <c r="D39" s="1">
@@ -1425,7 +1422,7 @@
       <c r="E39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>18800</v>
       </c>
       <c r="G39" s="1"/>
@@ -1434,10 +1431,10 @@
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="5">
-        <v>5</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5">
         <v>6</v>
       </c>
       <c r="D40" s="1">
@@ -1446,7 +1443,7 @@
       <c r="E40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="1">
         <v>18800</v>
       </c>
       <c r="G40" s="1"/>
@@ -1455,10 +1452,10 @@
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>6</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>2</v>
       </c>
       <c r="D41" s="1">
@@ -1467,7 +1464,7 @@
       <c r="E41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="1">
         <v>18800</v>
       </c>
       <c r="G41" s="1"/>
@@ -1476,10 +1473,10 @@
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>6</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>2</v>
       </c>
       <c r="D42" s="1">
@@ -1488,7 +1485,7 @@
       <c r="E42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="1">
         <v>18800</v>
       </c>
       <c r="G42" s="1"/>
@@ -1497,10 +1494,10 @@
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>6</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>2</v>
       </c>
       <c r="D43" s="1">
@@ -1509,7 +1506,7 @@
       <c r="E43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>18800</v>
       </c>
       <c r="G43" s="1"/>
@@ -1518,10 +1515,10 @@
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>6</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>3</v>
       </c>
       <c r="D44" s="1">
@@ -1530,7 +1527,7 @@
       <c r="E44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="1">
         <v>18800</v>
       </c>
       <c r="G44" s="1"/>
@@ -1539,10 +1536,10 @@
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>6</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>4</v>
       </c>
       <c r="D45" s="1">
@@ -1551,7 +1548,7 @@
       <c r="E45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="1">
         <v>10000</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -1562,10 +1559,10 @@
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>6</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>6</v>
       </c>
       <c r="D46" s="1">
@@ -1574,16 +1571,13 @@
       <c r="E46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="1">
         <v>18800</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="F47">
-        <f>SUM(F2:F46)</f>
-        <v>766300</v>
-      </c>
+      <c r="F47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
